--- a/data/trans_camb/PCS12_SP_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/PCS12_SP_R2-Habitat-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-2.62807924159974</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>2.116161369538005</v>
+        <v>2.116161369538017</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.208268983436272</v>
+        <v>-2.966516210207643</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.281767640195157</v>
+        <v>-5.075206569166555</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.06586070728107</v>
+        <v>1.809661938131323</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-9.901370447972095</v>
+        <v>-9.589041294586604</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-10.98657168036281</v>
+        <v>-11.29179051557633</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-8.560656669674369</v>
+        <v>-8.583350794961083</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-4.147986594392465</v>
+        <v>-4.057616034948039</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-6.23081416364234</v>
+        <v>-6.589048238865335</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.501605858931206</v>
+        <v>-1.353176257060106</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.868513667946384</v>
+        <v>7.413827080693541</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.488865164005686</v>
+        <v>5.465587123414858</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13.35615812559968</v>
+        <v>13.5864004431647</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.024566779227782</v>
+        <v>0.7072857198701323</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.6890063962239242</v>
+        <v>-0.4827582630644017</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.146073865547509</v>
+        <v>1.115932276608799</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.511777486376254</v>
+        <v>3.301455643650553</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.310973871537764</v>
+        <v>1.192757576185258</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>6.039142196122231</v>
+        <v>6.151894765944401</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.05257273158168816</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.04233220288918635</v>
+        <v>0.04233220288918657</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.04911973106652003</v>
+        <v>-0.06732019163941501</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.09618491036167896</v>
+        <v>-0.1096682293626273</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.04628572935297529</v>
+        <v>0.03962492447750824</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1633188001398695</v>
+        <v>-0.1618496298502357</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1837564288487015</v>
+        <v>-0.189362474985048</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1440397114178984</v>
+        <v>-0.1431768204942612</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.08139398096814465</v>
+        <v>-0.07903259460336259</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1198294642558803</v>
+        <v>-0.1270740956267804</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.02915712759279353</v>
+        <v>-0.0260708587718808</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2020160086692831</v>
+        <v>0.1809258850868359</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1643904915562801</v>
+        <v>0.1386050150959437</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3324852107478954</v>
+        <v>0.3326027701254836</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.02041678777837233</v>
+        <v>0.01316458900001708</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.008794968866158289</v>
+        <v>-0.009808676290228392</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02055440375297028</v>
+        <v>0.01976550559053299</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0727685139555443</v>
+        <v>0.06853543919613367</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.02784125223590607</v>
+        <v>0.02474448641981707</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.127443721078848</v>
+        <v>0.1273851236053943</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-13.43060128058432</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-10.33772323777917</v>
+        <v>-10.33772323777916</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.2537524212180287</v>
@@ -878,7 +878,7 @@
         <v>-8.088733405016125</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-6.516693188062261</v>
+        <v>-6.516693188062267</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.2751424526313123</v>
+        <v>0.08611476203321339</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.675476725783429</v>
+        <v>-7.134238306882219</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.303943300318124</v>
+        <v>-7.282042022534909</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-9.675307602774609</v>
+        <v>-9.545779775016838</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-18.35442013766639</v>
+        <v>-18.2205025554021</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-14.8105703037597</v>
+        <v>-14.4768435281602</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.429550682393133</v>
+        <v>-3.573573722918267</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-11.60321950275528</v>
+        <v>-11.44123568979921</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-9.65260503151851</v>
+        <v>-9.612753821844098</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.881162632475158</v>
+        <v>9.094448101568368</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.561602962949275</v>
+        <v>2.191753281802818</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.880034799244444</v>
+        <v>1.788210892101204</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.305327008172908</v>
+        <v>-0.5535427919279454</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-9.093856573138872</v>
+        <v>-9.037690329341869</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-6.319513285915038</v>
+        <v>-6.106471439928807</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.84944174913561</v>
+        <v>2.701093808758142</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-4.960097952414444</v>
+        <v>-4.937987164542112</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-3.177673268111644</v>
+        <v>-3.429667825276158</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.2228926257746119</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.1715635978510392</v>
+        <v>-0.171563597851039</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.005077225844842908</v>
@@ -983,7 +983,7 @@
         <v>-0.1618440765958461</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.1303897827596007</v>
+        <v>-0.1303897827596008</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.005903891708456799</v>
+        <v>0.002224732129714184</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1814856887228259</v>
+        <v>-0.172324587744127</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1726869664102273</v>
+        <v>-0.1765399987525362</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1561222034439718</v>
+        <v>-0.1532090336907479</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.291010256113529</v>
+        <v>-0.2906301926901388</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2372505585676518</v>
+        <v>-0.2329308689806288</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.06560905737895201</v>
+        <v>-0.06964301090333182</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2234251257174703</v>
+        <v>-0.2228097507914704</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1868562968050937</v>
+        <v>-0.1855185853348725</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2388971512680823</v>
+        <v>0.2455854898360093</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.03980718843818414</v>
+        <v>0.05705161770745984</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.05238639928587654</v>
+        <v>0.04819336840324719</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.006732560272309794</v>
+        <v>-0.009582335733848016</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1547944471791877</v>
+        <v>-0.1523435924017461</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.1082938617547259</v>
+        <v>-0.1072895952623209</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05833578698277507</v>
+        <v>0.05559331500392106</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1022136185067735</v>
+        <v>-0.1051282585445391</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.06615114698948323</v>
+        <v>-0.06908597846316392</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-7.786361166386296</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-4.97463235229959</v>
+        <v>-4.974632352299579</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-4.965541106351045</v>
@@ -1092,7 +1092,7 @@
         <v>-6.988491761206816</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-3.199207766507139</v>
+        <v>-3.199207766507134</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-11.7114467263369</v>
+        <v>-11.19977253705958</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-11.66253412563377</v>
+        <v>-11.50579587320049</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.971782127879401</v>
+        <v>-6.879215845391201</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-9.350386219471952</v>
+        <v>-9.140744176960022</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-12.91024001201282</v>
+        <v>-13.1618471527971</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-9.970864338550555</v>
+        <v>-10.19873278362784</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-8.892269693776397</v>
+        <v>-8.516234676557586</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-10.74886280501019</v>
+        <v>-10.78880431815655</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-6.771574726169992</v>
+        <v>-6.68272538966662</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.6505661909600396</v>
+        <v>-0.3141797629974315</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-1.151437041952884</v>
+        <v>-0.8479258562399669</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.935426878462466</v>
+        <v>4.10792398002673</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8973599993160903</v>
+        <v>1.382393379025342</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-2.350158854212798</v>
+        <v>-2.786935448699407</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1517848209123964</v>
+        <v>-0.05387407573339416</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.9224771815377141</v>
+        <v>-0.9327971260302699</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-3.197481091273372</v>
+        <v>-3.037477992250404</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7981908231639538</v>
+        <v>0.9277127470059402</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.1370649254937235</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.08756948183577004</v>
+        <v>-0.08756948183576985</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.095872016835522</v>
@@ -1197,7 +1197,7 @@
         <v>-0.1349300681306172</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.06176859566394689</v>
+        <v>-0.06176859566394678</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2357807133172116</v>
+        <v>-0.2257123428762507</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2328274825608659</v>
+        <v>-0.2349032821232234</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1374946594014622</v>
+        <v>-0.1387826336156525</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1593665228318518</v>
+        <v>-0.154258435532914</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2179300145567632</v>
+        <v>-0.2242943065413764</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1663486049869606</v>
+        <v>-0.1699312440519629</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1640581343453126</v>
+        <v>-0.1586308659530335</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2004928749016329</v>
+        <v>-0.2011427876676687</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1278057224883593</v>
+        <v>-0.1227931289820079</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.01103763310096619</v>
+        <v>-0.007820150608744966</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.02306133482306617</v>
+        <v>-0.0203955005221301</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.09238988089699078</v>
+        <v>0.09259936092467555</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.01654380093493401</v>
+        <v>0.02579396052536246</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.04325349698066216</v>
+        <v>-0.05409765104814401</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.00296599390862062</v>
+        <v>-0.001884431889182093</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.01772774382836794</v>
+        <v>-0.01971254568097858</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.06434762349481658</v>
+        <v>-0.06118682213306142</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.01676976561641945</v>
+        <v>0.01831542588588643</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-5.568074889445274</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8.703613658260362</v>
+        <v>8.703613658260373</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>1.155042454146349</v>
@@ -1306,7 +1306,7 @@
         <v>-7.066198230310778</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>5.313773603557315</v>
+        <v>5.313773603557326</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.714829448696443</v>
+        <v>-1.701450305246797</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-10.34232856289582</v>
+        <v>-9.943649237959056</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.232499922670359</v>
+        <v>3.68092499581179</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.006888790370343</v>
+        <v>-2.612100053680449</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-13.05191770480159</v>
+        <v>-13.00399059323712</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.684899262466339</v>
+        <v>-1.967657095991591</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.327653529723282</v>
+        <v>-1.070698720110753</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-10.2817007857751</v>
+        <v>-10.32297205590301</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.288687719510273</v>
+        <v>2.225435732765585</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.515904280484996</v>
+        <v>7.586024217807474</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-1.758343771044748</v>
+        <v>-1.261621434777242</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>13.21793504314764</v>
+        <v>13.22469128026274</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.69042904620089</v>
+        <v>5.808712959820317</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-4.520832218359496</v>
+        <v>-3.984156551013031</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.123999004591816</v>
+        <v>6.480617085692368</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.292387694013166</v>
+        <v>5.549918687991618</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-3.988551046294895</v>
+        <v>-3.779024371939568</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>8.370407502553325</v>
+        <v>8.551481093422652</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.1311098774071601</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.2049415179197575</v>
+        <v>0.2049415179197578</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.02136823808284711</v>
@@ -1411,7 +1411,7 @@
         <v>-0.1455646983786113</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.1094644993875339</v>
+        <v>0.1094644993875341</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.03799689473168089</v>
+        <v>-0.03823418538426946</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2269621014239203</v>
+        <v>-0.2221652922869128</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.09331778527346152</v>
+        <v>0.08299490517855007</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.05331360338518699</v>
+        <v>-0.04766610105236734</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2347078469451871</v>
+        <v>-0.2296617674852512</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.0298611567651883</v>
+        <v>-0.03443429186071228</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.02644077612182047</v>
+        <v>-0.02139970913005632</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2038611328653985</v>
+        <v>-0.2054095811829778</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.04564649835454356</v>
+        <v>0.04476969273096222</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.188267475779839</v>
+        <v>0.1893003890816864</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.04081326475934546</v>
+        <v>-0.03160672210725908</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.3280370613339496</v>
+        <v>0.3341160337383734</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1104579115860073</v>
+        <v>0.1129810800329556</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.08696494276363527</v>
+        <v>-0.07671940944908807</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1175580681677528</v>
+        <v>0.1267708019761012</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1123737320866753</v>
+        <v>0.1186008825384445</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.08405861050815294</v>
+        <v>-0.08113667253240629</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.1785508337857065</v>
+        <v>0.1830635043227304</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-3.626125643856315</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2.903219259725232</v>
+        <v>2.903219259725237</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-2.76485607951229</v>
@@ -1511,7 +1511,7 @@
         <v>-9.226008945811953</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-4.115471754696898</v>
+        <v>-4.115471754696909</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-0.6890389783901218</v>
@@ -1520,7 +1520,7 @@
         <v>-6.441628500511598</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-0.6143329823027899</v>
+        <v>-0.6143329823027954</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.101309333462187</v>
+        <v>-0.9950774601628875</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.111079840846532</v>
+        <v>-6.180992656267703</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.5156777454488906</v>
+        <v>0.2650772467025525</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-5.283945373115437</v>
+        <v>-5.076720746372455</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-11.99917925782206</v>
+        <v>-11.48073873259531</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-6.252943986528237</v>
+        <v>-6.37640572705808</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.545947527250311</v>
+        <v>-2.367013270122131</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-8.156700488651129</v>
+        <v>-8.104084938893381</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-2.109349138940363</v>
+        <v>-2.557821128979421</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.777158377837825</v>
+        <v>3.834232632327314</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-1.36078694066017</v>
+        <v>-1.270768531477348</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.369340230965062</v>
+        <v>5.35168532390617</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-0.4913799009206741</v>
+        <v>-0.3432611219230688</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-6.946132244020757</v>
+        <v>-6.590526803292494</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-1.843886430080177</v>
+        <v>-1.684090510634902</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.018527805255033</v>
+        <v>1.139232427774874</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-4.624924248497899</v>
+        <v>-4.635126949466654</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.194584598732348</v>
+        <v>1.113103568692199</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.08517312421271032</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.06819296376127125</v>
+        <v>0.06819296376127137</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.04846085002384306</v>
@@ -1616,7 +1616,7 @@
         <v>-0.1617083215125231</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.07213368571318508</v>
+        <v>-0.07213368571318528</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.01380143846403421</v>
@@ -1625,7 +1625,7 @@
         <v>-0.1290257041273564</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.01230507869306356</v>
+        <v>-0.01230507869306368</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.02485943358539219</v>
+        <v>-0.02216886499132938</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1378673341610508</v>
+        <v>-0.142135339869318</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.0121280228963354</v>
+        <v>0.007031632425430158</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.090003253115554</v>
+        <v>-0.08761595007216688</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2072603633800078</v>
+        <v>-0.1979161141320867</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1082181146759748</v>
+        <v>-0.1101295887529057</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.05033872864344263</v>
+        <v>-0.04669631687511778</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1629107783470911</v>
+        <v>-0.1600420589945836</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.0414983127550717</v>
+        <v>-0.04982402735510003</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.0910771880965493</v>
+        <v>0.09378980016048208</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.03303183879161643</v>
+        <v>-0.03072744671693687</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1293519217786388</v>
+        <v>0.1309954207744286</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.008781877308073192</v>
+        <v>-0.007179694527190137</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.1250198027733339</v>
+        <v>-0.117952239079592</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.03285670191205647</v>
+        <v>-0.03041844025013107</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02053210734817386</v>
+        <v>0.02348066943038718</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.0956907917024034</v>
+        <v>-0.09527824353824858</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.02448128473204212</v>
+        <v>0.02235916541314365</v>
       </c>
     </row>
     <row r="34">
